--- a/hw5.xlsx
+++ b/hw5.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Файлы\code\HW5\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EBDF10C8-BA20-4A5B-A311-0CB9C4437649}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A4381CB-03BD-41D1-95B5-6A02F24795D9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11205" yWindow="1575" windowWidth="14760" windowHeight="12705" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
@@ -42,27 +42,12 @@
     <t>Адреса локальных переменных</t>
   </si>
   <si>
-    <t>0060FED8</t>
-  </si>
-  <si>
-    <t>0060FED4</t>
-  </si>
-  <si>
     <t>0060FED0</t>
   </si>
   <si>
     <t>0060FECC</t>
   </si>
   <si>
-    <t>0060FEC8</t>
-  </si>
-  <si>
-    <t>00401DC8</t>
-  </si>
-  <si>
-    <t>00401DD8</t>
-  </si>
-  <si>
     <t>0060FE90</t>
   </si>
   <si>
@@ -81,28 +66,43 @@
     <t>Наблюдения</t>
   </si>
   <si>
-    <t>Адреса всех глобальных переменных находятся рядом</t>
-  </si>
-  <si>
-    <t>Адреса всех локальных переменных находятся рядом</t>
-  </si>
-  <si>
-    <t>Адреса глобальных и локальных переменных находятся рядом</t>
-  </si>
-  <si>
-    <t>Адреса всех динамических массивов находятся рядом</t>
-  </si>
-  <si>
-    <t>Адреса всех системных функций находятся рядом</t>
-  </si>
-  <si>
-    <t>Адреса системных функций и адреса пользовательских функций находятся почти рядом</t>
-  </si>
-  <si>
-    <t>Адреса всех пользовательских функций находятся рядом</t>
-  </si>
-  <si>
-    <t>Адреса динамических массивов находятся рядом с адресами переменных</t>
+    <t>00402000</t>
+  </si>
+  <si>
+    <t>00402004</t>
+  </si>
+  <si>
+    <t>00402008</t>
+  </si>
+  <si>
+    <t>00401DF8</t>
+  </si>
+  <si>
+    <t>00401E08</t>
+  </si>
+  <si>
+    <t>Адреса static переменных</t>
+  </si>
+  <si>
+    <t>0040200С</t>
+  </si>
+  <si>
+    <t>00402010</t>
+  </si>
+  <si>
+    <t>Локальные и глобальные переменные лежат в разных областях памяти</t>
+  </si>
+  <si>
+    <t>Статические переменные лежат в том же месте, где лежат глобальные</t>
+  </si>
+  <si>
+    <t>Динамические массивы лежат в том же месте, где лежат локальные переменные</t>
+  </si>
+  <si>
+    <t>Наблюдения совпадают с теорией</t>
+  </si>
+  <si>
+    <t>Функции лежат там же, где и глобальные и статические переменные</t>
   </si>
 </sst>
 </file>
@@ -158,7 +158,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -201,6 +201,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
@@ -214,7 +220,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="8">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -223,8 +229,9 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="2"/>
@@ -234,10 +241,16 @@
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="4"/>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="5"/>
     <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="7"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="1" fillId="5" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="5" borderId="0" xfId="4" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="0" xfId="7" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="8" borderId="0" xfId="7" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="8"/>
   </cellXfs>
-  <cellStyles count="8">
+  <cellStyles count="9">
     <cellStyle name="40% — акцент2" xfId="3" builtinId="35"/>
+    <cellStyle name="40% — акцент5" xfId="8" builtinId="47"/>
     <cellStyle name="40% — акцент6" xfId="7" builtinId="51"/>
     <cellStyle name="60% — акцент2" xfId="4" builtinId="36"/>
     <cellStyle name="60% — акцент3" xfId="5" builtinId="40"/>
@@ -524,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:I15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -535,7 +548,8 @@
     <col min="3" max="3" width="26.42578125" customWidth="1"/>
     <col min="4" max="4" width="33.28515625" customWidth="1"/>
     <col min="5" max="5" width="30.5703125" customWidth="1"/>
-    <col min="6" max="6" width="81.140625" customWidth="1"/>
+    <col min="6" max="6" width="25.28515625" customWidth="1"/>
+    <col min="7" max="7" width="99.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
@@ -554,87 +568,85 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="8" t="s">
+      <c r="F1" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="10" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="D3" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>10</v>
-      </c>
-      <c r="D2" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>12</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C3" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="D3" s="3" t="s">
+      <c r="F3" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="G3" s="14" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
-        <v>7</v>
-      </c>
       <c r="B4" s="2"/>
-      <c r="C4" s="6"/>
+      <c r="C4" s="11"/>
       <c r="D4" s="3"/>
       <c r="E4" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" s="8" t="s">
-        <v>20</v>
+        <v>9</v>
+      </c>
+      <c r="F4" s="8"/>
+      <c r="G4" s="14" t="s">
+        <v>25</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F5" s="8" t="s">
-        <v>21</v>
+      <c r="G5" s="14" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F6" s="8" t="s">
-        <v>22</v>
-      </c>
+      <c r="G6" s="14"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F7" s="9" t="s">
+      <c r="G7" s="14" t="s">
         <v>24</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F8" s="9" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F9" s="8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
